--- a/wwwroot/Reports/software_analogReport.xlsx
+++ b/wwwroot/Reports/software_analogReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\1Курс 3_2\asp\SoftwareCatalogDatabaseASP\wwwroot\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5591C7-6B2D-40DA-862D-37EC94CB801C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5306F4-1C14-4EAD-A60B-A8A89C941839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Аналоги</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>Image</t>
-  </si>
-  <si>
     <t>Ссылка</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t xml:space="preserve"> StellarStudio - это интегрированная среда разработки для создания красочных и впечатляющих графических проектов. Она предлагает широкий спектр инструментов и эффектов, чтобы воплотить в жизнь ваше творчество.</t>
   </si>
   <si>
-    <t>/Files/softwares-hwpro13.png</t>
-  </si>
-  <si>
     <t>www.stellarstudio.com</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Visual Studio — интегрированная среда разработки программного обеспечения от Microsoft.</t>
   </si>
   <si>
-    <t>/Files/visualstudio.jpg</t>
-  </si>
-  <si>
     <t>http://www.visualstudio.com</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>IntelliJ IDEA — интегрированная среда разработки программного обеспечения для языков Java, Kotlin, Groovy и других.</t>
   </si>
   <si>
-    <t>/Files/intellij.jpg</t>
-  </si>
-  <si>
     <t>http://www.jetbrains.com/idea</t>
   </si>
   <si>
@@ -129,9 +117,6 @@
     <t>Xcode — интегрированная среда разработки для приложений под iOS и macOS.</t>
   </si>
   <si>
-    <t>/Files/xcode.jpg</t>
-  </si>
-  <si>
     <t>http://developer.apple.com/xcode</t>
   </si>
   <si>
@@ -148,9 +133,6 @@
   </si>
   <si>
     <t>PyCharm — интегрированная среда разработки для языка Python.</t>
-  </si>
-  <si>
-    <t>/Files/pycharm.jpg</t>
   </si>
   <si>
     <t>http://www.jetbrains.com/pycharm</t>
@@ -476,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,12 +471,12 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="54.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" customWidth="1"/>
     <col min="12" max="12" width="23.140625" customWidth="1"/>
     <col min="13" max="13" width="23.85546875" customWidth="1"/>
   </cols>
@@ -512,9 +494,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -547,9 +527,6 @@
       <c r="J2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
@@ -559,30 +536,27 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>18</v>
+      <c r="I3" s="0">
+        <v>199</v>
       </c>
       <c r="J3" s="0">
-        <v>199</v>
-      </c>
-      <c r="K3" s="0">
         <v>0</v>
       </c>
     </row>
@@ -591,33 +565,30 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>25</v>
+      <c r="I4" s="0">
+        <v>1499</v>
       </c>
       <c r="J4" s="0">
-        <v>1499</v>
-      </c>
-      <c r="K4" s="0">
         <v>12</v>
       </c>
     </row>
@@ -629,30 +600,27 @@
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="I5" s="0">
+        <v>499</v>
       </c>
       <c r="J5" s="0">
-        <v>499</v>
-      </c>
-      <c r="K5" s="0">
         <v>12</v>
       </c>
     </row>
@@ -664,30 +632,27 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>38</v>
+      <c r="I6" s="0">
+        <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0">
         <v>0</v>
       </c>
     </row>
@@ -699,36 +664,33 @@
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="I7" s="0">
+        <v>499</v>
       </c>
       <c r="J7" s="0">
-        <v>499</v>
-      </c>
-      <c r="K7" s="0">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/wwwroot/Reports/software_analogReport.xlsx
+++ b/wwwroot/Reports/software_analogReport.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Аналоги</t>
   </si>
@@ -58,24 +58,6 @@
   </si>
   <si>
     <t>Длительность лицензии</t>
-  </si>
-  <si>
-    <t>StellarStudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> StellarStudio - это интегрированная среда разработки для создания красочных и впечатляющих графических проектов. Она предлагает широкий спектр инструментов и эффектов, чтобы воплотить в жизнь ваше творчество.</t>
-  </si>
-  <si>
-    <t>www.stellarstudio.com</t>
-  </si>
-  <si>
-    <t>Windows 10, процессор Intel Core i5, 8 ГБ оперативной памяти, 500 ГБ свободного места на жестком диске.</t>
-  </si>
-  <si>
-    <t>Pro License</t>
-  </si>
-  <si>
-    <t>Полная</t>
   </si>
   <si>
     <t>Visual Studio</t>
@@ -458,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -533,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -554,10 +536,10 @@
         <v>16</v>
       </c>
       <c r="I3" s="0">
-        <v>199</v>
+        <v>1499</v>
       </c>
       <c r="J3" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>17</v>
@@ -583,10 +565,10 @@
         <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I4" s="0">
-        <v>1499</v>
+        <v>499</v>
       </c>
       <c r="J4" s="0">
         <v>12</v>
@@ -600,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="I5" s="0">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="J5" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -641,50 +623,18 @@
         <v>30</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I6" s="0">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="J6" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="0">
-        <v>499</v>
-      </c>
-      <c r="J7" s="0">
         <v>12</v>
       </c>
     </row>
